--- a/requerimientos_ttcc.xlsx
+++ b/requerimientos_ttcc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34385C5C-FAE2-4CC8-B96D-51D1413946A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2565" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5625" yWindow="4770" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -750,7 +751,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,12 +1313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>171</v>
       </c>

--- a/requerimientos_ttcc.xlsx
+++ b/requerimientos_ttcc.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34385C5C-FAE2-4CC8-B96D-51D1413946A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8F05E-802A-488C-9EE7-462DEF2B5260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="4770" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1317,8 +1323,8 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
